--- a/03.crawler/05.Standard/file/2.part/crawler_2.xlsx
+++ b/03.crawler/05.Standard/file/2.part/crawler_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,57 +446,32 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Vehicle</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Picture</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Url</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Vehicle</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Service</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Site</t>
+          <t>Json_Type</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Webbase</t>
+          <t>Json_Info</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Brand</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Partdesc_En</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Partlongdesc_En</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pop</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Qtyeach</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Json_Spec</t>
+          <t>Json_Specification</t>
         </is>
       </c>
     </row>
@@ -510,11 +485,6 @@
         </is>
       </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=DS-332&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
         <is>
           <t>Ford Fairmont (79-78)
 Mercury Cougar (82-80)
@@ -522,46 +492,23 @@
 Mercury Zephyr (79-78)</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
+          <t>https://www.standardbrand.com/en/ecatalog?part=DS332&amp;type=p&amp;search=s</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>{"0": "Switch - Power Seat"}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>DS332</t>
+          <t>{"Brand": "STD", "Partdesc_En": "Power Seat Switch", "Partlongdesc_En": "Power Seat Switch", "Pop": "X", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Gender": "Female; Male"}, "2": {"Terminal Quantity": "6; 1"}, "3": {"Terminal Gender": "Female; Female"}, "4": {"Terminal Type": "Blade &amp; Bullet"}, "5": {"Color/Finish": "Black"}, "6": {"Finish": "Chrome, Plastic"}}</t>
         </is>
@@ -577,11 +524,6 @@
         </is>
       </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=DS-888&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
         <is>
           <t>Dodge B1500 (98-97)
 Dodge B2500 (98-97)
@@ -599,46 +541,23 @@
 Plymouth Acclaim (95-89)</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
+          <t>https://www.standardbrand.com/en/ecatalog?part=DS888&amp;type=p&amp;search=s</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>{"0": "Switch - Power Seat"}</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>DS888</t>
+          <t>{"Brand": "STD", "Partdesc_En": "Power Seat Switch", "Partlongdesc_En": "Power Seat Switch", "Pop": "C", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Quantity": "1"}, "2": {"Connector Shape": "Rectangular"}, "3": {"Connector Gender": "Female"}, "4": {"Terminal Quantity": "8"}, "5": {"Terminal Gender": "Male"}, "6": {"Terminal Type": "Pin"}, "7": {"Color/Finish": "Black, Cream"}, "8": {"Finish": "Plastic"}}</t>
         </is>
@@ -654,11 +573,6 @@
         </is>
       </c>
       <c r="C4" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=DS-1103&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
         <is>
           <t>Chrysler 300M (04-00)
 Chrysler Concorde (04-97)
@@ -675,46 +589,23 @@
 Plymouth Voyager (00-96)</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
+          <t>https://www.standardbrand.com/en/ecatalog?part=DS1103&amp;type=p&amp;search=s</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>{"0": "Switch - Power Seat"}</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>DS1103</t>
+          <t>{"Brand": "STD", "Partdesc_En": "Power Seat Switch", "Partlongdesc_En": "Power Seat Switch", "Pop": "F", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Gender": "Female"}, "2": {"Terminal Quantity": "10"}, "3": {"Terminal Gender": "Male"}, "4": {"Terminal Type": "Blade Terminals"}, "5": {"Color/Finish": "Black"}, "6": {"Finish": "Plastic"}, "7": {"Contents": "1 Switch"}}</t>
         </is>
@@ -730,11 +621,6 @@
         </is>
       </c>
       <c r="C5" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=DS-1104&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
         <is>
           <t>Chrysler 300M (04-00)
 Chrysler Concorde (04-97)
@@ -753,46 +639,23 @@
 Plymouth Voyager (00-96)</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
+          <t>https://www.standardbrand.com/en/ecatalog?part=DS1104&amp;type=p&amp;search=s</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>{"0": "Switch - Power Seat"}</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>DS1104</t>
+          <t>{"Brand": "STD", "Partdesc_En": "Power Seat Switch", "Partlongdesc_En": "Power Seat Switch", "Pop": "F", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Gender": "Female"}, "2": {"Terminal Quantity": "10"}, "3": {"Terminal Gender": "Male"}, "4": {"Terminal Type": "Blade Terminals"}}</t>
         </is>
@@ -808,11 +671,6 @@
         </is>
       </c>
       <c r="C6" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=DS-1126&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
         <is>
           <t>Chrysler Imperial (91)
 Chrysler New Yorker (91)
@@ -823,46 +681,23 @@
 Plymouth Voyager (90-88)</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
+          <t>https://www.standardbrand.com/en/ecatalog?part=DS1126&amp;type=p&amp;search=s</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>{"0": "Switch - Power Seat", "1": "Switch - Power Window"}</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>DS1126</t>
+          <t>{"Brand": "STD", "Partdesc_En": "Power Seat Switch", "Partlongdesc_En": "Power Seat Switch", "Pop": "F", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Gender": "Female"}, "2": {"Terminal Quantity": "5"}, "3": {"Terminal Gender": "Male"}, "4": {"Terminal Type": "Pins"}}</t>
         </is>
@@ -879,54 +714,26 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=DS-2190&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>Kia Sorento (06-03)</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
+          <t>https://www.standardbrand.com/en/ecatalog?part=DS2190&amp;type=p&amp;search=s</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>{"0": "Switch - Power Seat"}</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>DS2190</t>
+          <t>{"Brand": "STI", "Partdesc_En": "Power Seat Switch", "Partlongdesc_En": "Power Seat Switch", "Pop": "X", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
-        <is>
-          <t>STI</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Quantity": "1"}, "2": {"Connector Gender": "Female"}, "3": {"Terminal Quantity": "10"}, "4": {"Terminal Gender": "Male"}, "5": {"Terminal Type": "Blade"}}</t>
         </is>
@@ -943,54 +750,26 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=DS-2250&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
           <t>Kia Sedona (05-02)</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
+          <t>https://www.standardbrand.com/en/ecatalog?part=DS2250&amp;type=p&amp;search=s</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>{"0": "Switch - Power Seat"}</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>DS2250</t>
+          <t>{"Brand": "STI", "Partdesc_En": "Power Seat Switch", "Partlongdesc_En": "Power Seat Switch", "Pop": "Q", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
-        <is>
-          <t>STI</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Gender": "Female"}, "2": {"Terminal Quantity": "6"}, "3": {"Terminal Gender": "Male"}, "4": {"Terminal Type": "Blade"}}</t>
         </is>
@@ -1007,54 +786,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=DS-2251&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
           <t>Kia Sedona (05-02)</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
+          <t>https://www.standardbrand.com/en/ecatalog?part=DS2251&amp;type=p&amp;search=s</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>{"0": "Switch - Power Seat"}</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>DS2251</t>
+          <t>{"Brand": "STI", "Partdesc_En": "Power Seat Switch", "Partlongdesc_En": "Power Seat Switch", "Pop": "X", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
-        <is>
-          <t>STI</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Power Seat Switch</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Connector Gender": "Female + Female + Female; Female; Male; Male; Male"}, "2": {"Terminal Quantity": "10"}, "3": {"Terminal Gender": "Male"}, "4": {"Terminal Type": "Blade"}}</t>
         </is>
@@ -1071,54 +822,26 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=DS-2425&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
           <t>Buick Encore (13)</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
+          <t>https://www.standardbrand.com/en/ecatalog?part=DS2425&amp;type=p&amp;search=s</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>{"0": "Switch - Power Seat Lumbar"}</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>DS2425</t>
+          <t>{"Brand": "STD", "Partdesc_En": "Power Seat Lumbar Switch", "Partlongdesc_En": "Power Seat Lumbar Switch", "Pop": "F", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Power Seat Lumbar Switch</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Power Seat Lumbar Switch</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Terminal Quantity": "4"}, "2": {"Terminal Gender": "Male"}, "3": {"Terminal Type": "Blade"}, "4": {"Color/Finish": "Black"}, "5": {"Finish": "Plastic"}, "6": {"Contents": "1 Switch"}}</t>
         </is>
@@ -1134,11 +857,6 @@
         </is>
       </c>
       <c r="C11" t="inlineStr">
-        <is>
-          <t>https://www.standardbrand.com/en/ecatalog?part=DS-3092&amp;type=p&amp;search=s</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
         <is>
           <t>Cadillac Escalade (07-03)
 Cadillac Escalade ESV (07-03)
@@ -1163,46 +881,23 @@
 GMC Sierra 3500 HD (07)</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1. Fuel Filter Flush (Required)
-2. Oil Change (Required)</t>
+          <t>https://www.standardbrand.com/en/ecatalog?part=DS3092&amp;type=p&amp;search=s</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>{"0": "Switch - Heated Seat", "1": "Switch - Power Seat Memory"}</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>DS3092</t>
+          <t>{"Brand": "STD", "Partdesc_En": "Heated Seat Switch", "Partlongdesc_En": "Heated Seat Switch", "Pop": "D", "Qtyeach": 1}</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
-        <is>
-          <t>STD</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Heated Seat Switch</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Heated Seat Switch</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr">
         <is>
           <t>{"0": {"Warranty": "3 years/36,000 mile"}, "1": {"Functions": "Heated Seats"}, "2": {"Connector Quantity": "1"}, "3": {"Connector Shape": "Rectangular"}, "4": {"Connector Gender": "Male"}, "5": {"Terminal Quantity": "10"}, "6": {"Terminal Gender": "Female"}, "7": {"Terminal Type": "Pins"}, "8": {"Attachment Method": "Push-on"}, "9": {"Color/Finish": "Black, Green"}, "10": {"Finish": "Plastic"}, "11": {"Contents": "Switch"}}</t>
         </is>
